--- a/medicine/Psychotrope/Crisis_(film,_2021)/Crisis_(film,_2021).xlsx
+++ b/medicine/Psychotrope/Crisis_(film,_2021)/Crisis_(film,_2021).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crisis ou Crise au Québec est un film américano-canado-belge réalisé par Nicholas Jarecki (en) et sorti en 2021.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un dealer organise un trafic de Fentanyl entre le Canada et les États-Unis. De son côté, une architecte se bat contre sa dépendance à l'Oxycodone et veut découvrir les véritables liens entre son fils et des narcotrafiquants. Enfin, un professeur d'université, également employé d'une entreprise pharmaceutique, surveille le lancement d'un nouvel antalgique non addictif[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un dealer organise un trafic de Fentanyl entre le Canada et les États-Unis. De son côté, une architecte se bat contre sa dépendance à l'Oxycodone et veut découvrir les véritables liens entre son fils et des narcotrafiquants. Enfin, un professeur d'université, également employé d'une entreprise pharmaceutique, surveille le lancement d'un nouvel antalgique non addictif.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Crisis
@@ -559,7 +575,7 @@
 Langue originale : anglais
 Format : couleur
 Genre : thriller, drame, film choral
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 26 février 2021 (sortie limitée en salles)
 États-Unis : 5 mars 2021 (vidéo à la demande)
 France : 13 août 2021 (VOD), 19 août 2021 (DVD)</t>
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gary Oldman (VF : Gabriel Le Doze ; VQ : Manuel Tadros) : Dr Tyrone Brower
 Armie Hammer (VF : Mathieu Moreau ; VQ : Alexandre Fortin) : Jake Kahane
@@ -611,7 +629,7 @@
 Hiro Kanagawa : Dr Ishiyama
 Toni Garrn : Sarah
 Sara Sampaio : Inês
-Source : version française (VF) selon le carton du doublage français sur le DVD zone 2 ; version québécoise (VQ) sur Doublage.qc.ca[3]</t>
+Source : version française (VF) selon le carton du doublage français sur le DVD zone 2 ; version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -639,10 +657,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2019, Armie Hammer, Gary Oldman, Evangeline Lilly et Veronica Ferres rejoignent officiellement la distribution d'un film écrit et réalisé par Nicholas Jarecki[4]. Greg Kinnear, Michelle Rodríguez et Lily-Rose Depp sont ensuite annoncés[5]. Le mois suivant, c'est Adam Tsekhman qui est engagé[6]. En avril 2019, Sam Worthington, Indira Varma, Kid Cudi, Luke Evans, Mia Kirshner, Michael Aronov et Martin Donovan sont confirmés[7],[8].
-Le tournage débute en février 2019 et se déroule à Montréal et Détroit[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2019, Armie Hammer, Gary Oldman, Evangeline Lilly et Veronica Ferres rejoignent officiellement la distribution d'un film écrit et réalisé par Nicholas Jarecki. Greg Kinnear, Michelle Rodríguez et Lily-Rose Depp sont ensuite annoncés. Le mois suivant, c'est Adam Tsekhman qui est engagé. En avril 2019, Sam Worthington, Indira Varma, Kid Cudi, Luke Evans, Mia Kirshner, Michael Aronov et Martin Donovan sont confirmés,.
+Le tournage débute en février 2019 et se déroule à Montréal et Détroit.
 </t>
         </is>
       </c>
@@ -671,9 +691,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques partagées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 63% d'opinions favorables pour 104 critiques et une note moyenne de 5,8⁄10[10]. Sur Metacritic, il obtient une note moyenne de 40⁄100 pour 18 critiques[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques partagées. Sur l'agrégateur américain Rotten Tomatoes, il récolte 63% d'opinions favorables pour 104 critiques et une note moyenne de 5,8⁄10. Sur Metacritic, il obtient une note moyenne de 40⁄100 pour 18 critiques.
 </t>
         </is>
       </c>
